--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAB69B-9DAF-4726-BC32-CF013FFA6C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E862263-0D4E-4514-8E66-08980D2406FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,6 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -539,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,115 +549,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -715,22 +715,26 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="4">
         <f>SUM(C9:K9)/9</f>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -743,22 +747,26 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="4">
         <f t="shared" ref="L10:L27" si="0">SUM(C10:K10)/9</f>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -771,22 +779,26 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -799,22 +811,26 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -827,22 +843,26 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -855,22 +875,26 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -883,22 +907,26 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -911,22 +939,26 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -939,22 +971,26 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -967,22 +1003,26 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -995,22 +1035,26 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1023,22 +1067,26 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1051,22 +1099,26 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1079,22 +1131,26 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1107,9 +1163,13 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1122,7 +1182,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1135,9 +1195,13 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1150,7 +1214,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1163,22 +1227,26 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1191,22 +1259,26 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1219,9 +1291,13 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1234,20 +1310,19 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:P2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1259,13 +1334,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E862263-0D4E-4514-8E66-08980D2406FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F240F1-82E9-4B06-93B7-334E46799A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -221,6 +221,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -230,7 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -549,115 +549,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -722,19 +722,23 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="4">
         <f>SUM(C9:K9)/9</f>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -754,19 +758,23 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="4">
         <f t="shared" ref="L10:L27" si="0">SUM(C10:K10)/9</f>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -786,19 +794,23 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -818,19 +830,23 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -850,19 +866,23 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -882,19 +902,23 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -914,19 +938,23 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -946,19 +974,23 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -978,19 +1010,23 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1010,19 +1046,23 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1042,19 +1082,23 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1074,19 +1118,23 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1106,19 +1154,23 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1138,19 +1190,23 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1170,8 +1226,12 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="4">
@@ -1182,7 +1242,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1202,19 +1262,23 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1234,19 +1298,23 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1266,19 +1334,23 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1298,8 +1370,12 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="4">
@@ -1310,19 +1386,20 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:P2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1334,14 +1411,13 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F240F1-82E9-4B06-93B7-334E46799A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6117C-CFE7-4085-AD11-97D4E514A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -547,27 +547,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="11" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -586,8 +586,10 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -604,8 +606,10 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -618,7 +622,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -631,7 +635,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -644,7 +648,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -657,7 +661,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -689,20 +693,26 @@
       <c r="K8" s="2">
         <v>44973</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2">
+        <v>44977</v>
+      </c>
+      <c r="M8" s="2">
+        <v>44980</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -728,17 +738,27 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="4">
-        <f>SUM(C9:K9)/9</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM(C9:L9)/9</f>
+        <v>1</v>
+      </c>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -764,17 +784,27 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="4">
-        <f t="shared" ref="L10:L27" si="0">SUM(C10:K10)/9</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
+        <v>1</v>
+      </c>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -800,17 +830,27 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="4">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+        <v>0.88888888888888884</v>
+      </c>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -836,17 +876,27 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="4">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+        <v>0.88888888888888884</v>
+      </c>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -872,17 +922,27 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="4">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+        <v>1</v>
+      </c>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -908,17 +968,27 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="4">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+        <v>0.88888888888888884</v>
+      </c>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -944,17 +1014,27 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="4">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+        <v>1</v>
+      </c>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -980,17 +1060,27 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="4">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+        <v>0.88888888888888884</v>
+      </c>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1016,17 +1106,27 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="4">
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+        <v>0.88888888888888884</v>
+      </c>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1052,17 +1152,27 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="4">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+        <v>1</v>
+      </c>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1088,17 +1198,27 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="4">
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+        <v>0.77777777777777779</v>
+      </c>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1124,17 +1244,27 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="4">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+        <v>1</v>
+      </c>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1160,17 +1290,27 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="4">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+        <v>1</v>
+      </c>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1196,17 +1336,27 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="4">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+        <v>1</v>
+      </c>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1232,17 +1382,27 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="4">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+        <v>0.1111111111111111</v>
+      </c>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1268,17 +1428,27 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="4">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1304,17 +1474,27 @@
       <c r="I25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="4">
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+        <v>1</v>
+      </c>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1340,17 +1520,27 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="4">
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+        <v>1</v>
+      </c>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1376,17 +1566,27 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="4">
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
     </row>
@@ -1400,7 +1600,7 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A1:R2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1441,7 +1641,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:K27</xm:sqref>
+          <xm:sqref>C9:M27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6117C-CFE7-4085-AD11-97D4E514A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB06FB07-D2DC-4BA0-9675-B9BAA1B6C9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -138,6 +139,9 @@
   </si>
   <si>
     <t>Introducción a redes de datos</t>
+  </si>
+  <si>
+    <t>Normas y Estandares</t>
   </si>
 </sst>
 </file>
@@ -221,7 +225,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -549,119 +553,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -712,7 +716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -758,7 +762,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -804,7 +808,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -850,7 +854,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -896,7 +900,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -942,7 +946,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -988,7 +992,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1038,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1080,7 +1084,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1126,7 +1130,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1176,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1218,7 +1222,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1264,7 +1268,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1314,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1356,7 +1360,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1406,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1452,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1494,7 +1498,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1540,7 +1544,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1586,20 +1590,19 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1611,13 +1614,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1647,4 +1651,745 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35810676-44D1-43C5-A523-65BB10788E56}">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>44984</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f>SUM(C9:L9)/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{65738E0F-283D-47BF-B7B4-52FFEAEDFAF7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:M27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB06FB07-D2DC-4BA0-9675-B9BAA1B6C9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D991560-298B-4C62-9AFF-5EFF2B87C172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -225,6 +225,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,7 +235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -557,115 +557,115 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -716,7 +716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -808,7 +808,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1590,19 +1590,20 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1614,14 +1615,13 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1657,119 +1657,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35810676-44D1-43C5-A523-65BB10788E56}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +1777,9 @@
       <c r="C8" s="2">
         <v>44984</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>44985</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1800,7 +1802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1812,9 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1822,13 +1826,13 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:L9)/9</f>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1838,7 +1842,9 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1850,13 +1856,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1866,7 +1872,9 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1878,13 +1886,13 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1894,7 +1902,9 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1906,13 +1916,13 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1922,7 +1932,9 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1934,13 +1946,13 @@
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1950,7 +1962,9 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1962,13 +1976,13 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +1992,9 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1990,13 +2006,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -2006,7 +2022,9 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2018,13 +2036,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2034,7 +2052,9 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2046,13 +2066,13 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -2062,7 +2082,9 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2074,13 +2096,13 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2090,7 +2112,9 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2102,13 +2126,13 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +2142,9 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2130,13 +2156,13 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2146,7 +2172,9 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2158,13 +2186,13 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2202,9 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2186,13 +2216,13 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -2202,7 +2232,9 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2214,13 +2246,13 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2230,7 +2262,9 @@
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2248,7 +2282,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -2258,7 +2292,9 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2270,13 +2306,13 @@
       <c r="M25" s="1"/>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2286,7 +2322,9 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2298,13 +2336,13 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -2314,7 +2352,9 @@
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2332,12 +2372,30 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A21:B21"/>
@@ -2346,24 +2404,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D991560-298B-4C62-9AFF-5EFF2B87C172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62F52D8-BB2E-47E0-8762-BDAB9F7E17F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,98 +572,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -760,7 +760,9 @@
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -806,7 +808,9 @@
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -852,7 +856,9 @@
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -898,7 +904,9 @@
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -944,7 +952,9 @@
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -990,7 +1000,9 @@
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1036,7 +1048,9 @@
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1082,7 +1096,9 @@
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1128,7 +1144,9 @@
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1174,7 +1192,9 @@
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1220,7 +1240,9 @@
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1266,7 +1288,9 @@
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1312,7 +1336,9 @@
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1358,7 +1384,9 @@
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1404,7 +1432,9 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -1450,7 +1480,9 @@
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1496,7 +1528,9 @@
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1542,7 +1576,9 @@
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -1588,22 +1624,23 @@
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1615,13 +1652,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1657,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35810676-44D1-43C5-A523-65BB10788E56}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,100 +1714,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -2373,17 +2411,19 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2396,14 +2436,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62F52D8-BB2E-47E0-8762-BDAB9F7E17F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0125289-7616-490F-AF00-4E602B924BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Normas y Estandares</t>
+  </si>
+  <si>
+    <t>07/03/20230</t>
   </si>
 </sst>
 </file>
@@ -225,6 +228,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,7 +238,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -553,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,98 +575,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1629,18 +1632,19 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1652,14 +1656,13 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1695,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35810676-44D1-43C5-A523-65BB10788E56}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,100 +1717,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1818,8 +1821,12 @@
       <c r="D8" s="2">
         <v>44985</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>44991</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1853,8 +1860,12 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1864,7 +1875,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:L9)/9</f>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1883,8 +1894,12 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1894,7 +1909,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1913,8 +1928,12 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1924,7 +1943,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1943,8 +1962,12 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1954,7 +1977,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1973,8 +1996,12 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1984,7 +2011,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2003,8 +2030,12 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2014,7 +2045,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2033,8 +2064,12 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2044,7 +2079,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2063,8 +2098,12 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2074,7 +2113,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2093,8 +2132,12 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2104,7 +2147,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2123,8 +2166,12 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2134,7 +2181,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2153,8 +2200,12 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2164,7 +2215,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2183,8 +2234,12 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2194,7 +2249,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2213,8 +2268,12 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2224,7 +2283,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2243,8 +2302,12 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2254,7 +2317,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2273,8 +2336,12 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2303,8 +2370,12 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2333,8 +2404,12 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2344,7 +2419,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2363,8 +2438,12 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2374,7 +2453,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2393,8 +2472,12 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2411,19 +2494,17 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2436,12 +2517,14 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0125289-7616-490F-AF00-4E602B924BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F99960-46BE-4206-97F7-13F1D72B2DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
+    <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="37">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>07/03/20230</t>
+  </si>
+  <si>
+    <t>Dispositivos de Red</t>
   </si>
 </sst>
 </file>
@@ -1698,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35810676-44D1-43C5-A523-65BB10788E56}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,4 +2557,785 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B75A9A-4250-4A1C-9D5C-4290693779ED}">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>44998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44999</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f>SUM(C9:L9)/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{15C150A6-6983-4637-B4BF-7FB12E3843C2}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:M27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F99960-46BE-4206-97F7-13F1D72B2DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D44752-BEE2-4720-B7D0-A1C22EFFFBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -242,6 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -564,115 +564,115 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -819,7 +819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -867,7 +867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -963,7 +963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1635,20 +1635,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1660,13 +1659,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1702,119 +1702,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35810676-44D1-43C5-A523-65BB10788E56}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1831,8 +1831,12 @@
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>44998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44999</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1851,7 +1855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1870,8 +1874,12 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1879,13 +1887,13 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:L9)/9</f>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1904,8 +1912,12 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1913,13 +1925,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1938,8 +1950,12 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1953,7 +1969,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1972,8 +1988,12 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1981,13 +2001,13 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2006,8 +2026,12 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2015,13 +2039,13 @@
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2040,8 +2064,12 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2049,13 +2077,13 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -2074,8 +2102,12 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2083,13 +2115,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -2108,8 +2140,12 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2117,13 +2153,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2142,8 +2178,12 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2151,13 +2191,13 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -2176,8 +2216,12 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2185,13 +2229,13 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2210,8 +2254,12 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2219,13 +2267,13 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -2244,8 +2292,12 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2253,13 +2305,13 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2278,8 +2330,12 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2287,13 +2343,13 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2312,8 +2368,12 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2321,13 +2381,13 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -2346,8 +2406,12 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2361,7 +2425,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2380,8 +2444,12 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2389,13 +2457,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -2414,8 +2482,12 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2423,13 +2495,13 @@
       <c r="M25" s="1"/>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2448,8 +2520,12 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2457,13 +2533,13 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -2482,8 +2558,12 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2497,18 +2577,20 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2521,21 +2603,19 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{65738E0F-283D-47BF-B7B4-52FFEAEDFAF7}">
+          <x14:cfRule type="iconSet" priority="2" id="{65738E0F-283D-47BF-B7B4-52FFEAEDFAF7}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2551,7 +2631,26 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:M27</xm:sqref>
+          <xm:sqref>C9:F27 I9:M27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{4B2E6446-A4B6-4F5E-96BF-ED5E72ED7889}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G9:H27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2563,129 +2662,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B75A9A-4250-4A1C-9D5C-4290693779ED}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="2">
-        <v>44998</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44999</v>
-      </c>
+        <v>45006</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2708,7 +2805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2718,9 +2815,7 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2732,13 +2827,13 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:L9)/9</f>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2748,9 +2843,7 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2762,13 +2855,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2778,9 +2871,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2798,7 +2889,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2806,11 +2897,9 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2822,13 +2911,13 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2838,9 +2927,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2852,13 +2939,13 @@
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2866,11 +2953,9 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2882,13 +2967,13 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -2898,9 +2983,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2912,13 +2995,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -2928,9 +3011,7 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2942,13 +3023,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2956,11 +3037,9 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2972,13 +3051,13 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -2988,9 +3067,7 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3002,13 +3079,13 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -3016,11 +3093,9 @@
         <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3032,13 +3107,13 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -3048,9 +3123,7 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3062,13 +3135,13 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -3078,9 +3151,7 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3092,13 +3163,13 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -3108,9 +3179,7 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3122,13 +3191,13 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -3138,9 +3207,7 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3158,7 +3225,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -3166,11 +3233,9 @@
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3182,13 +3247,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -3198,9 +3263,7 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3212,13 +3275,13 @@
       <c r="M25" s="1"/>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -3228,9 +3291,7 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3242,13 +3303,13 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3258,9 +3319,7 @@
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3278,18 +3337,20 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3302,14 +3363,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D44752-BEE2-4720-B7D0-A1C22EFFFBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87CC67F-CA84-4D36-AE04-06EC6B570FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -232,6 +232,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,7 +242,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -579,98 +579,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -1636,18 +1636,19 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1659,14 +1660,13 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1721,98 +1721,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -2578,19 +2578,17 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2603,12 +2601,14 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2681,98 +2681,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -2782,7 +2782,9 @@
       <c r="C8" s="2">
         <v>45006</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>45008</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2815,7 +2817,9 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2827,7 +2831,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:L9)/9</f>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2843,7 +2847,9 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2855,7 +2861,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2871,7 +2877,9 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2883,7 +2891,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2899,7 +2907,9 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2927,7 +2937,9 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2955,7 +2967,9 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2983,7 +2997,9 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2995,7 +3011,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3011,7 +3027,9 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3039,7 +3057,9 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3051,7 +3071,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3067,7 +3087,9 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3079,7 +3101,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3095,7 +3117,9 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3107,7 +3131,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3123,7 +3147,9 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3135,7 +3161,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3151,7 +3177,9 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3163,7 +3191,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3179,7 +3207,9 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3191,7 +3221,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3207,7 +3237,9 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3219,7 +3251,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3235,7 +3267,9 @@
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3263,7 +3297,9 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3275,7 +3311,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -3291,7 +3327,9 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3303,7 +3341,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3319,7 +3357,9 @@
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3338,19 +3378,17 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3363,12 +3401,14 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87CC67F-CA84-4D36-AE04-06EC6B570FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F032FD0-1FCF-42CA-B88C-0336B0983CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -2662,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B75A9A-4250-4A1C-9D5C-4290693779ED}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2785,8 +2785,12 @@
       <c r="D8" s="2">
         <v>45008</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>45012</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45013</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2820,8 +2824,12 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2831,7 +2839,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:L9)/9</f>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2850,8 +2858,12 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2861,7 +2873,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2880,8 +2892,12 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2891,7 +2907,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2910,8 +2926,12 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2921,7 +2941,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2940,8 +2960,12 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2951,7 +2975,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2970,8 +2994,12 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2981,7 +3009,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3000,8 +3028,12 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3011,7 +3043,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3030,8 +3062,12 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3041,7 +3077,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3060,8 +3096,12 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3071,7 +3111,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3090,8 +3130,12 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3101,7 +3145,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3120,8 +3164,12 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3131,7 +3179,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3150,8 +3198,12 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3161,7 +3213,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3180,8 +3232,12 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3191,7 +3247,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3210,8 +3266,12 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3221,7 +3281,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3240,8 +3300,12 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3270,8 +3334,12 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3281,7 +3349,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3300,8 +3368,12 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3311,7 +3383,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -3330,8 +3402,12 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3341,7 +3417,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3360,8 +3436,12 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F032FD0-1FCF-42CA-B88C-0336B0983CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472CFADF-07B9-44DE-B736-DCF875B56631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -242,6 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -564,115 +564,115 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -819,7 +819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -867,7 +867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -963,7 +963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1635,20 +1635,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1660,13 +1659,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1706,115 +1706,115 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2045,7 +2045,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2083,7 +2083,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2121,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -2235,7 +2235,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -2577,18 +2577,20 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2601,14 +2603,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2662,119 +2662,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B75A9A-4250-4A1C-9D5C-4290693779ED}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2791,9 @@
       <c r="F8" s="2">
         <v>45013</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>45015</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2811,7 +2813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2830,7 +2832,9 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2839,13 +2843,13 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:L9)/9</f>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2864,7 +2868,9 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2873,13 +2879,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +2904,9 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2907,13 +2915,13 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2932,7 +2940,9 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2941,13 +2951,13 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2966,7 +2976,9 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2975,13 +2987,13 @@
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -3000,7 +3012,9 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3009,13 +3023,13 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3034,7 +3048,9 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3043,13 +3059,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -3068,7 +3084,9 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3077,13 +3095,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -3102,7 +3120,9 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3111,13 +3131,13 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -3136,7 +3156,9 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3145,13 +3167,13 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -3170,7 +3192,9 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3179,13 +3203,13 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -3204,7 +3228,9 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3213,13 +3239,13 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -3238,7 +3264,9 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3247,13 +3275,13 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -3272,7 +3300,9 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3281,13 +3311,13 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -3306,7 +3336,9 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3315,13 +3347,13 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -3340,7 +3372,9 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3355,7 +3389,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -3374,7 +3408,9 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3383,13 +3419,13 @@
       <c r="M25" s="1"/>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -3408,7 +3444,9 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3417,13 +3455,13 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3442,7 +3480,9 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3457,18 +3497,20 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3481,14 +3523,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472CFADF-07B9-44DE-B736-DCF875B56631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6684293-C0F8-4BF7-81C0-E09FD69FFC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,8 +2794,12 @@
       <c r="G8" s="2">
         <v>45015</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2">
+        <v>45033</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45034</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2835,15 +2839,19 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:L9)/9</f>
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2871,15 +2879,19 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2907,15 +2919,19 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2943,15 +2959,19 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2979,15 +2999,19 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -3015,15 +3039,19 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3051,15 +3079,19 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3087,15 +3119,19 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3123,15 +3159,19 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3159,15 +3199,19 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3195,15 +3239,19 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3231,15 +3279,19 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3267,15 +3319,19 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3303,15 +3359,19 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3339,15 +3399,19 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3375,8 +3439,12 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3411,15 +3479,19 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -3447,15 +3519,19 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3483,8 +3559,12 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>

--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6684293-C0F8-4BF7-81C0-E09FD69FFC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F006E-C038-447B-B834-296FFC2140AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
     <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
+    <sheet name="UNIDAD 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="38">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -150,6 +151,9 @@
   <si>
     <t>Dispositivos de Red</t>
   </si>
+  <si>
+    <t>Cableado estructurado</t>
+  </si>
 </sst>
 </file>
 
@@ -232,6 +236,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,7 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -564,115 +568,115 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -723,7 +727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -771,7 +775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -819,7 +823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -867,7 +871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -915,7 +919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -963,7 +967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1635,19 +1639,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1659,14 +1664,13 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1706,115 +1710,115 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +1897,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1935,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1969,7 +1973,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2007,7 +2011,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2045,7 +2049,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2083,7 +2087,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2125,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -2159,7 +2163,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2197,7 +2201,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -2235,7 +2239,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2273,7 +2277,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -2311,7 +2315,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2349,7 +2353,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2387,7 +2391,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -2425,7 +2429,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2463,7 +2467,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -2501,7 +2505,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2539,7 +2543,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -2577,20 +2581,18 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2603,12 +2605,14 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2662,119 +2666,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B75A9A-4250-4A1C-9D5C-4290693779ED}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2857,7 +2861,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2897,7 +2901,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2937,7 +2941,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2977,7 +2981,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -3017,7 +3021,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -3057,7 +3061,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3097,7 +3101,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -3137,7 +3141,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -3177,7 +3181,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -3217,7 +3221,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -3257,7 +3261,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -3297,7 +3301,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -3337,7 +3341,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -3377,7 +3381,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -3417,7 +3421,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -3457,7 +3461,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -3497,7 +3501,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -3537,7 +3541,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3577,20 +3581,18 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3603,12 +3605,14 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3637,4 +3641,745 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BBCEEB-9ADD-47D3-A2F1-9A7329989C98}">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>45048</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f>SUM(C9:L9)/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{4EF87497-09DC-4301-B5F1-A215F2B93DE0}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:M27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
+++ b/Redes de Computadora/LISTA DE ASISTENCIA.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Redes de Computadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F006E-C038-447B-B834-296FFC2140AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918958FB-1491-4CC7-9602-F8E53ABF340F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="4" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
     <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
     <sheet name="UNIDAD 4" sheetId="4" r:id="rId4"/>
+    <sheet name="UNIDAD 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="38">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -146,13 +147,13 @@
     <t>Normas y Estandares</t>
   </si>
   <si>
-    <t>07/03/20230</t>
-  </si>
-  <si>
     <t>Dispositivos de Red</t>
   </si>
   <si>
     <t>Cableado estructurado</t>
+  </si>
+  <si>
+    <t>Planificación y diseño de una red LAN.</t>
   </si>
 </sst>
 </file>
@@ -564,25 +565,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -604,7 +605,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -624,7 +625,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -637,7 +638,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +651,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -691,25 +692,25 @@
         <v>44959</v>
       </c>
       <c r="F8" s="2">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="G8" s="2">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H8" s="2">
-        <v>44966</v>
+        <v>44970</v>
       </c>
       <c r="I8" s="2">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="J8" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="K8" s="2">
-        <v>44973</v>
+        <v>44977</v>
       </c>
       <c r="L8" s="2">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="M8" s="2">
         <v>44980</v>
@@ -727,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -743,7 +744,9 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -766,16 +769,20 @@
         <v>1</v>
       </c>
       <c r="N9" s="4">
-        <f>SUM(C9:L9)/9</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+        <f>SUM(C9:M9)/11</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1">
+        <v>100</v>
+      </c>
       <c r="Q9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -791,7 +798,9 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -814,16 +823,20 @@
         <v>1</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+        <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1">
+        <v>100</v>
+      </c>
       <c r="Q10" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -839,7 +852,9 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
@@ -863,15 +878,19 @@
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+      <c r="P11" s="1">
+        <v>100</v>
+      </c>
       <c r="Q11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -887,7 +906,9 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
@@ -911,15 +932,19 @@
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1">
+        <v>100</v>
+      </c>
       <c r="Q12" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -935,7 +960,9 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
@@ -961,13 +988,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1">
+        <v>100</v>
+      </c>
       <c r="Q13" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -983,7 +1014,9 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
@@ -1007,15 +1040,19 @@
       </c>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O14" s="1">
+        <v>100</v>
+      </c>
+      <c r="P14" s="1">
+        <v>100</v>
+      </c>
       <c r="Q14" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1031,7 +1068,9 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
@@ -1057,13 +1096,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1">
+        <v>100</v>
+      </c>
       <c r="Q15" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1079,7 +1122,9 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
@@ -1103,15 +1148,19 @@
       </c>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+      <c r="P16" s="1">
+        <v>100</v>
+      </c>
       <c r="Q16" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1176,9 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
@@ -1151,15 +1202,19 @@
       </c>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1">
+        <v>100</v>
+      </c>
       <c r="Q17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1175,7 +1230,9 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
@@ -1201,13 +1258,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
       <c r="Q18" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1223,7 +1284,9 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
@@ -1247,15 +1310,19 @@
       </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="O19" s="1">
+        <v>90</v>
+      </c>
+      <c r="P19" s="1">
+        <v>90</v>
+      </c>
       <c r="Q19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1271,7 +1338,9 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
@@ -1297,13 +1366,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1">
+        <v>100</v>
+      </c>
       <c r="Q20" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1319,7 +1392,9 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
@@ -1345,13 +1420,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+      <c r="P21" s="1">
+        <v>100</v>
+      </c>
       <c r="Q21" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1446,9 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
@@ -1393,13 +1474,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+      <c r="P22" s="1">
+        <v>100</v>
+      </c>
       <c r="Q22" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1415,7 +1500,9 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
@@ -1439,15 +1526,19 @@
       </c>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
       <c r="Q23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1463,7 +1554,9 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
@@ -1487,15 +1580,19 @@
       </c>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
       <c r="Q24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1511,7 +1608,9 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
@@ -1537,13 +1636,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="O25" s="1">
+        <v>100</v>
+      </c>
+      <c r="P25" s="1">
+        <v>100</v>
+      </c>
       <c r="Q25" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1559,7 +1662,9 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
@@ -1585,13 +1690,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="O26" s="1">
+        <v>100</v>
+      </c>
+      <c r="P26" s="1">
+        <v>100</v>
+      </c>
       <c r="Q26" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1607,7 +1716,9 @@
       <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
@@ -1633,13 +1744,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
       <c r="Q27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
     </row>
@@ -1704,27 +1819,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35810676-44D1-43C5-A523-65BB10788E56}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1743,10 +1858,8 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1763,10 +1876,8 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1890,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1903,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1805,7 +1916,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1929,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1830,36 +1941,40 @@
         <v>44985</v>
       </c>
       <c r="E8" s="2">
+        <v>44987</v>
+      </c>
+      <c r="F8" s="2">
         <v>44991</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="2">
+        <v>44992</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44994</v>
+      </c>
+      <c r="I8" s="2">
         <v>44998</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>44999</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2">
+        <v>45001</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1884,20 +1999,30 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4">
-        <f>SUM(C9:L9)/9</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM(C9:K9)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1922,20 +2047,30 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" ref="L10:L27" si="0">SUM(C10:K10)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1960,20 +2095,30 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>90</v>
+      </c>
+      <c r="O11" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1998,20 +2143,30 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <v>100</v>
+      </c>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2036,20 +2191,30 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>90</v>
+      </c>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2074,20 +2239,30 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>90</v>
+      </c>
+      <c r="O14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -2112,20 +2287,30 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -2150,20 +2335,30 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2188,20 +2383,30 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>90</v>
+      </c>
+      <c r="O17" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -2226,20 +2431,30 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>90</v>
+      </c>
+      <c r="O18" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2264,20 +2479,30 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>90</v>
+      </c>
+      <c r="O19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -2302,20 +2527,30 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2340,20 +2575,30 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1">
+        <v>100</v>
+      </c>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2378,20 +2623,30 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -2416,20 +2671,30 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="4">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2454,20 +2719,30 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -2492,20 +2767,30 @@
       <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+      <c r="O25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2530,20 +2815,30 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>100</v>
+      </c>
+      <c r="N26" s="1">
+        <v>100</v>
+      </c>
+      <c r="O26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -2568,27 +2863,37 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A1:P2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -2619,25 +2924,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{65738E0F-283D-47BF-B7B4-52FFEAEDFAF7}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C9:F27 I9:M27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{4B2E6446-A4B6-4F5E-96BF-ED5E72ED7889}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -2656,6 +2942,25 @@
           </x14:cfRule>
           <xm:sqref>G9:H27</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{65738E0F-283D-47BF-B7B4-52FFEAEDFAF7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:F27 I9:K27</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -2664,27 +2969,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B75A9A-4250-4A1C-9D5C-4290693779ED}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2703,10 +3008,8 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2723,10 +3026,8 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2739,7 +3040,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2752,7 +3053,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2765,12 +3066,12 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2778,50 +3079,52 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="2">
+        <v>45005</v>
+      </c>
+      <c r="D8" s="2">
         <v>45006</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>45008</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>45012</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>45013</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>45015</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>45033</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>45034</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2">
+        <v>45036</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2849,19 +3152,27 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4">
-        <f>SUM(C9:L9)/9</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM(C9:K9)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2889,19 +3200,27 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" ref="L10:L27" si="0">SUM(C10:K10)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2909,7 +3228,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2918,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2929,19 +3248,27 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2949,10 +3276,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2969,19 +3296,27 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <v>100</v>
+      </c>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2992,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -3004,24 +3339,32 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -3029,10 +3372,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3049,19 +3392,27 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+      <c r="O14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3089,19 +3440,27 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -3112,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -3129,19 +3488,27 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -3149,7 +3516,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -3169,19 +3536,27 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -3209,19 +3584,27 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -3229,7 +3612,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -3249,19 +3632,27 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -3289,19 +3680,27 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -3329,19 +3728,27 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1">
+        <v>100</v>
+      </c>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -3369,19 +3776,27 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -3389,16 +3804,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -3409,19 +3824,27 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M23" s="1">
+        <v>100</v>
+      </c>
+      <c r="N23" s="1">
+        <v>100</v>
+      </c>
+      <c r="O23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -3444,24 +3867,32 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M24" s="1">
+        <v>50</v>
+      </c>
+      <c r="N24" s="1">
+        <v>50</v>
+      </c>
+      <c r="O24" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -3489,19 +3920,27 @@
       <c r="I25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+      <c r="O25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -3529,19 +3968,27 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>100</v>
+      </c>
+      <c r="N26" s="1">
+        <v>100</v>
+      </c>
+      <c r="O26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3569,26 +4016,34 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A1:P2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -3619,7 +4074,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{15C150A6-6983-4637-B4BF-7FB12E3843C2}">
+          <x14:cfRule type="iconSet" priority="5" id="{15C150A6-6983-4637-B4BF-7FB12E3843C2}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3635,7 +4090,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:M27</xm:sqref>
+          <xm:sqref>C9:K27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3645,27 +4100,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BBCEEB-9ADD-47D3-A2F1-9A7329989C98}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3683,11 +4137,8 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3703,11 +4154,8 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3720,7 +4168,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3733,7 +4181,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3746,12 +4194,12 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -3759,38 +4207,49 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="2">
+        <v>45040</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45041</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45043</v>
+      </c>
+      <c r="F8" s="2">
         <v>45048</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="G8" s="2">
+        <v>45050</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45054</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45055</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45057</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -3800,25 +4259,42 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4">
-        <f>SUM(C9:L9)/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" ref="K9:K27" si="0">SUM(C9:J9)/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -3828,25 +4304,42 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10:N27" si="0">SUM(C10:L10)/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -3854,27 +4347,44 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -3882,27 +4392,44 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -3912,25 +4439,42 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -3938,27 +4482,44 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3968,25 +4529,42 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -3996,25 +4574,42 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -4022,27 +4617,44 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -4052,25 +4664,42 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -4078,27 +4707,44 @@
         <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -4108,25 +4754,42 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L20" s="1">
+        <v>100</v>
+      </c>
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -4136,25 +4799,42 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L21" s="1">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -4164,25 +4844,42 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -4190,27 +4887,44 @@
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L23" s="1">
+        <v>70</v>
+      </c>
+      <c r="M23" s="1">
+        <v>70</v>
+      </c>
+      <c r="N23" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -4218,27 +4932,44 @@
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -4248,25 +4979,42 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -4276,25 +5024,42 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L26" s="1">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1">
+        <v>100</v>
+      </c>
+      <c r="N26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -4304,25 +5069,42 @@
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
     </row>
@@ -4336,11 +5118,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -4348,19 +5125,24 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{4EF87497-09DC-4301-B5F1-A215F2B93DE0}">
+          <x14:cfRule type="iconSet" priority="6" id="{4EF87497-09DC-4301-B5F1-A215F2B93DE0}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4376,7 +5158,1075 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:M27</xm:sqref>
+          <xm:sqref>C9:J27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34205C3A-36AB-455F-83A2-5A7E4295F681}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>45062</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45064</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45068</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45069</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45071</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45075</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45076</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45078</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" ref="K9:K27" si="0">SUM(C9:J9)/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L20" s="1">
+        <v>100</v>
+      </c>
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L21" s="1">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L23" s="1">
+        <v>70</v>
+      </c>
+      <c r="M23" s="1">
+        <v>70</v>
+      </c>
+      <c r="N23" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L26" s="1">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1">
+        <v>100</v>
+      </c>
+      <c r="N26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{FCD48B05-59F6-40C7-A324-E056C94DBE42}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:J27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
